--- a/main/admin/danhsach/ketqua_dangky.xlsx
+++ b/main/admin/danhsach/ketqua_dangky.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Loại Đề Tài</t>
   </si>
@@ -32,14 +32,14 @@
     <t>Trạng Thái</t>
   </si>
   <si>
-    <t>Dự án CNTT 6</t>
+    <t>Dự án CNTT 2</t>
   </si>
   <si>
     <t>Phát triển ứng dụng bán hàng trên Web dành cho các cửa hàng bán lẻ</t>
   </si>
   <si>
-    <t xml:space="preserve">51503365 - 
-51503067 - 
+    <t xml:space="preserve">51503365 - Nguyễn Phước An Khang
+51503067 - Huỳnh Thiên Phúc
 </t>
   </si>
   <si>
@@ -52,21 +52,18 @@
     <t>Phát triển ứng dụng bán hàng trên Desktop dành cho các cửa hàng bán lẻ</t>
   </si>
   <si>
-    <t xml:space="preserve">51503231 - 
-51503135 - 
+    <t xml:space="preserve">51503231 - Nguyễn Đình Thản
+51503135 - Trần Ngọc Dương
 </t>
   </si>
   <si>
     <t>10-04-2019 01:01:50</t>
   </si>
   <si>
-    <t>Dự án CNTT 1</t>
-  </si>
-  <si>
     <t>Tìm hiểu và cài đặt thuật toán khai thác tập phổ biến trên CSDL lớn trên môi trường song song/phân tán</t>
   </si>
   <si>
-    <t xml:space="preserve">51503321 - 
+    <t xml:space="preserve">51503321 - Nguyễn Phước Thiện
 </t>
   </si>
   <si>
@@ -76,7 +73,7 @@
     <t>Tìm hiểu và xây dựng hệ thống quản lý bán hàng đa kênh trên nền tảng web</t>
   </si>
   <si>
-    <t xml:space="preserve">51503293 - 
+    <t xml:space="preserve">51503293 - Nguyễn Thắng Phúc
 </t>
   </si>
   <si>
@@ -86,7 +83,7 @@
     <t xml:space="preserve"> Xây dựng ứng dụng kiểm lỗi chính tả tiếng Việt</t>
   </si>
   <si>
-    <t xml:space="preserve">51503065 - 
+    <t xml:space="preserve">51503065 - Trương Thành Nhơn
 </t>
   </si>
   <si>
@@ -96,18 +93,39 @@
     <t>Tìm hiểu mô hình GAN và ứng dụng trong thị giác máy tính</t>
   </si>
   <si>
-    <t xml:space="preserve">51503128 - 
-51503118 - 
+    <t xml:space="preserve">51503128 - Võ Thành Nhân
+51503118 - Lê Quốc Vinh
 </t>
   </si>
   <si>
     <t>10-04-2019 01:44:17</t>
   </si>
   <si>
+    <t>Hệ thống bán hàng cho công ty vừa và nhỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51503039 - Cao Ngọc Như Quỳnh
+51503178 - Nguyễn Ngọc Quang Vinh
+</t>
+  </si>
+  <si>
+    <t>10-04-2019 04:10:17</t>
+  </si>
+  <si>
+    <t>Blockchain trong quản lý sản phẩm hàng hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51503208 - Nguyễn Trung Kiên
+</t>
+  </si>
+  <si>
+    <t>11-04-2019 17:21:59</t>
+  </si>
+  <si>
     <t>Phát triển mạng xã hội FOTOBOOK</t>
   </si>
   <si>
-    <t xml:space="preserve">51503005 - 
+    <t xml:space="preserve">51503005 - Hà Thụy Sâm
 </t>
   </si>
   <si>
@@ -129,26 +147,19 @@
 </t>
   </si>
   <si>
-    <t>Tìm hiểu Python và OpenCV cho nhận dạng mặt người</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51503044 - 
+    <t>Tìm hiểu Python và OpenCV 
+cho nhận dạng mặt người</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51503044 - Lê Trần Nhật Duy
 </t>
   </si>
   <si>
     <t>Tìm hiểu Google Map APIs và framework Laravel xây dựng trang web rao vặt bất động sản</t>
   </si>
   <si>
-    <t xml:space="preserve">51503059 - 
-51503133 - 
-</t>
-  </si>
-  <si>
-    <t>Hệ thống bán hàng cho công ty vừa và nhỏ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51503039 - Nguyễn Hoàng Sơn
-51503178 - Nguyễn Thanh Đăng
+    <t xml:space="preserve">51503059 - Lương Văn Kiệt
+51503133 - Bùi Nguyễn Trung
 </t>
   </si>
 </sst>
@@ -503,10 +514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,16 +575,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -584,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -601,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -618,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -632,19 +643,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -652,16 +663,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -675,10 +686,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -686,33 +697,33 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -720,16 +731,33 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
